--- a/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
@@ -314,13 +314,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>17:50:05</t>
-  </si>
-  <si>
-    <t>dad38e1bc6e3bd53</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.734991a945a38737af1b4967f144714cae21a076828faa19b436e504ae4188ec.630f421b1c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>15:14:11</t>
+  </si>
+  <si>
+    <t>bfa48130615e1554</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.6be277607df90825720cee6fc1977a35738026206d8d2da6fc98b8d08442aa43.1425ed0acd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -2209,13 +2209,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>13:24:54</t>
-  </si>
-  <si>
-    <t>dcaa0ced97aef924</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.6c6c8fc0e31f5b2ca381ba7ff542ae2c84efcee0d792620ad5b5d45ee3b8fab5.5131357491^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>15:33:39</t>
+  </si>
+  <si>
+    <t>633aa5703bf60679</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.0e07f7c487158f4b5523d8b851fab14b2e425feb18b8d044aee9d08f227d2c3e.c84b73b493^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT0</t>
@@ -2247,13 +2247,13 @@
 </t>
   </si>
   <si>
-    <t>18:13:26</t>
-  </si>
-  <si>
-    <t>8feda9e7ca7cc70e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.00d3810775745bb0020911b5f9277a76fe100921b39283bf8b8733244ceff063.d1956596f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>15:38:58</t>
+  </si>
+  <si>
+    <t>ea8266cd4ddcf983</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9b4a24e8e60059e57750492ae0af2602e078ab96701ece7a7337b94e2fff68a0.a719b02db1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
@@ -3092,7 +3092,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3194,10 +3194,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6216,7 +6213,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="40">
-        <v>45670.0</v>
+        <v>45685.0</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>62</v>
@@ -6227,7 +6224,7 @@
       <c r="I15" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="41" t="s">
         <v>65</v>
       </c>
       <c r="K15" s="36"/>
@@ -6246,7 +6243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="31">
         <v>7.0</v>
       </c>
@@ -6266,10 +6263,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="36"/>
@@ -6287,7 +6284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="31">
         <v>8.0</v>
       </c>
@@ -6307,10 +6304,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="36"/>
@@ -6328,7 +6325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="31">
         <v>9.0</v>
       </c>
@@ -6348,10 +6345,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L18" s="36"/>
@@ -6850,7 +6847,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="31">
         <v>29.0</v>
       </c>
@@ -6870,10 +6867,10 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="42" t="s">
+      <c r="J32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L32" s="36"/>
@@ -6965,7 +6962,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="31">
         <v>32.0</v>
       </c>
@@ -6985,10 +6982,10 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="42" t="s">
+      <c r="K35" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L35" s="36"/>
@@ -7154,7 +7151,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="31">
         <v>37.0</v>
       </c>
@@ -7174,10 +7171,10 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K40" s="42" t="s">
+      <c r="K40" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="36"/>
@@ -7269,7 +7266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="31">
         <v>40.0</v>
       </c>
@@ -7289,10 +7286,10 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="42" t="s">
+      <c r="J43" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L43" s="36"/>
@@ -7480,30 +7477,30 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="42" t="s">
+      <c r="J48" s="41" t="s">
         <v>65</v>
       </c>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
-      <c r="M48" s="42" t="s">
+      <c r="M48" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="N48" s="42" t="s">
+      <c r="N48" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="O48" s="42" t="s">
+      <c r="O48" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="P48" s="42" t="s">
+      <c r="P48" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q48" s="42" t="s">
+      <c r="Q48" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="R48" s="42" t="s">
+      <c r="R48" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="S48" s="42" t="s">
+      <c r="S48" s="41" t="s">
         <v>142</v>
       </c>
       <c r="T48" s="36"/>
@@ -7613,30 +7610,30 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="42" t="s">
+      <c r="J51" s="41" t="s">
         <v>65</v>
       </c>
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
-      <c r="M51" s="42" t="s">
+      <c r="M51" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="N51" s="42" t="s">
+      <c r="N51" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="O51" s="42" t="s">
+      <c r="O51" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="P51" s="42" t="s">
+      <c r="P51" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Q51" s="42" t="s">
+      <c r="Q51" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="R51" s="42" t="s">
+      <c r="R51" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="S51" s="42" t="s">
+      <c r="S51" s="41" t="s">
         <v>142</v>
       </c>
       <c r="T51" s="36"/>
@@ -8172,7 +8169,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="31">
         <v>63.0</v>
       </c>
@@ -8192,10 +8189,10 @@
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
-      <c r="J66" s="42" t="s">
+      <c r="J66" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K66" s="42" t="s">
+      <c r="K66" s="41" t="s">
         <v>173</v>
       </c>
       <c r="L66" s="36"/>
@@ -8213,7 +8210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="31">
         <v>64.0</v>
       </c>
@@ -8233,13 +8230,13 @@
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
-      <c r="J67" s="42" t="s">
+      <c r="J67" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K67" s="42" t="s">
+      <c r="K67" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="L67" s="43" t="s">
+      <c r="L67" s="42" t="s">
         <v>177</v>
       </c>
       <c r="M67" s="36"/>
@@ -8256,7 +8253,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="31">
         <v>65.0</v>
       </c>
@@ -8276,13 +8273,13 @@
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
-      <c r="J68" s="42" t="s">
+      <c r="J68" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K68" s="42" t="s">
+      <c r="K68" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="L68" s="43" t="s">
+      <c r="L68" s="42" t="s">
         <v>180</v>
       </c>
       <c r="M68" s="36"/>
@@ -8299,7 +8296,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="31">
         <v>66.0</v>
       </c>
@@ -8319,10 +8316,10 @@
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
-      <c r="J69" s="42" t="s">
+      <c r="J69" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K69" s="42" t="s">
+      <c r="K69" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L69" s="36"/>
@@ -8340,7 +8337,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="31">
         <v>67.0</v>
       </c>
@@ -8360,10 +8357,10 @@
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
-      <c r="J70" s="42" t="s">
+      <c r="J70" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K70" s="42" t="s">
+      <c r="K70" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L70" s="36"/>
@@ -8381,7 +8378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="31">
         <v>68.0</v>
       </c>
@@ -8401,10 +8398,10 @@
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
-      <c r="J71" s="42" t="s">
+      <c r="J71" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="42" t="s">
+      <c r="K71" s="41" t="s">
         <v>187</v>
       </c>
       <c r="L71" s="36"/>
@@ -8422,7 +8419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="31">
         <v>69.0</v>
       </c>
@@ -8442,10 +8439,10 @@
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
-      <c r="J72" s="42" t="s">
+      <c r="J72" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K72" s="42" t="s">
+      <c r="K72" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L72" s="36"/>
@@ -8463,7 +8460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="31">
         <v>70.0</v>
       </c>
@@ -8483,10 +8480,10 @@
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="42" t="s">
+      <c r="J73" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K73" s="42" t="s">
+      <c r="K73" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L73" s="36"/>
@@ -8504,7 +8501,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="31">
         <v>71.0</v>
       </c>
@@ -8524,10 +8521,10 @@
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
-      <c r="J74" s="42" t="s">
+      <c r="J74" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K74" s="42" t="s">
+      <c r="K74" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L74" s="36"/>
@@ -8545,7 +8542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="31">
         <v>72.0</v>
       </c>
@@ -8565,10 +8562,10 @@
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
-      <c r="J75" s="42" t="s">
+      <c r="J75" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K75" s="42" t="s">
+      <c r="K75" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L75" s="36"/>
@@ -8586,7 +8583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="31">
         <v>73.0</v>
       </c>
@@ -8606,10 +8603,10 @@
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
-      <c r="J76" s="42" t="s">
+      <c r="J76" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K76" s="42" t="s">
+      <c r="K76" s="41" t="s">
         <v>187</v>
       </c>
       <c r="L76" s="36"/>
@@ -8627,7 +8624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="31">
         <v>74.0</v>
       </c>
@@ -8647,10 +8644,10 @@
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
-      <c r="J77" s="42" t="s">
+      <c r="J77" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K77" s="42" t="s">
+      <c r="K77" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L77" s="36"/>
@@ -11332,7 +11329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="31">
         <v>147.0</v>
       </c>
@@ -11352,10 +11349,10 @@
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
       <c r="I150" s="35"/>
-      <c r="J150" s="42" t="s">
+      <c r="J150" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K150" s="42" t="s">
+      <c r="K150" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L150" s="36"/>
@@ -11373,7 +11370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="31">
         <v>148.0</v>
       </c>
@@ -11393,10 +11390,10 @@
       <c r="G151" s="35"/>
       <c r="H151" s="35"/>
       <c r="I151" s="35"/>
-      <c r="J151" s="42" t="s">
+      <c r="J151" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K151" s="42" t="s">
+      <c r="K151" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L151" s="36"/>
@@ -11414,7 +11411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="31">
         <v>149.0</v>
       </c>
@@ -11434,10 +11431,10 @@
       <c r="G152" s="35"/>
       <c r="H152" s="35"/>
       <c r="I152" s="35"/>
-      <c r="J152" s="42" t="s">
+      <c r="J152" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K152" s="42" t="s">
+      <c r="K152" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L152" s="36"/>
@@ -11455,7 +11452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="31">
         <v>150.0</v>
       </c>
@@ -11475,10 +11472,10 @@
       <c r="G153" s="35"/>
       <c r="H153" s="35"/>
       <c r="I153" s="35"/>
-      <c r="J153" s="42" t="s">
+      <c r="J153" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L153" s="36"/>
@@ -11496,7 +11493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="1">
       <c r="A154" s="31">
         <v>151.0</v>
       </c>
@@ -11516,10 +11513,10 @@
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
       <c r="I154" s="35"/>
-      <c r="J154" s="42" t="s">
+      <c r="J154" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K154" s="42" t="s">
+      <c r="K154" s="41" t="s">
         <v>173</v>
       </c>
       <c r="L154" s="36"/>
@@ -11537,7 +11534,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="31">
         <v>152.0</v>
       </c>
@@ -11557,13 +11554,13 @@
       <c r="G155" s="35"/>
       <c r="H155" s="35"/>
       <c r="I155" s="35"/>
-      <c r="J155" s="42" t="s">
+      <c r="J155" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K155" s="42" t="s">
+      <c r="K155" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="L155" s="42" t="s">
+      <c r="L155" s="41" t="s">
         <v>177</v>
       </c>
       <c r="M155" s="36"/>
@@ -11580,7 +11577,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="31">
         <v>153.0</v>
       </c>
@@ -11600,13 +11597,13 @@
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
       <c r="I156" s="35"/>
-      <c r="J156" s="42" t="s">
+      <c r="J156" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K156" s="42" t="s">
+      <c r="K156" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="L156" s="42" t="s">
+      <c r="L156" s="41" t="s">
         <v>180</v>
       </c>
       <c r="M156" s="36"/>
@@ -11623,7 +11620,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="31">
         <v>154.0</v>
       </c>
@@ -11643,10 +11640,10 @@
       <c r="G157" s="35"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
-      <c r="J157" s="42" t="s">
+      <c r="J157" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K157" s="42" t="s">
+      <c r="K157" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L157" s="36"/>
@@ -11664,7 +11661,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="31">
         <v>155.0</v>
       </c>
@@ -11684,10 +11681,10 @@
       <c r="G158" s="35"/>
       <c r="H158" s="35"/>
       <c r="I158" s="35"/>
-      <c r="J158" s="42" t="s">
+      <c r="J158" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K158" s="42" t="s">
+      <c r="K158" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L158" s="36"/>
@@ -11705,7 +11702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="31">
         <v>156.0</v>
       </c>
@@ -11725,10 +11722,10 @@
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
-      <c r="J159" s="42" t="s">
+      <c r="J159" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K159" s="42" t="s">
+      <c r="K159" s="41" t="s">
         <v>187</v>
       </c>
       <c r="L159" s="36"/>
@@ -11746,7 +11743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="31">
         <v>157.0</v>
       </c>
@@ -11766,10 +11763,10 @@
       <c r="G160" s="35"/>
       <c r="H160" s="35"/>
       <c r="I160" s="35"/>
-      <c r="J160" s="42" t="s">
+      <c r="J160" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K160" s="42" t="s">
+      <c r="K160" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L160" s="36"/>
@@ -11787,7 +11784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="1">
       <c r="A161" s="31">
         <v>158.0</v>
       </c>
@@ -11807,10 +11804,10 @@
       <c r="G161" s="35"/>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
-      <c r="J161" s="42" t="s">
+      <c r="J161" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K161" s="42" t="s">
+      <c r="K161" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L161" s="36"/>
@@ -11828,7 +11825,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="31">
         <v>159.0</v>
       </c>
@@ -11848,10 +11845,10 @@
       <c r="G162" s="35"/>
       <c r="H162" s="35"/>
       <c r="I162" s="35"/>
-      <c r="J162" s="42" t="s">
+      <c r="J162" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K162" s="42" t="s">
+      <c r="K162" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L162" s="36"/>
@@ -11869,7 +11866,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="31">
         <v>160.0</v>
       </c>
@@ -11889,13 +11886,13 @@
       <c r="G163" s="35"/>
       <c r="H163" s="35"/>
       <c r="I163" s="35"/>
-      <c r="J163" s="42" t="s">
+      <c r="J163" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K163" s="42" t="s">
+      <c r="K163" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="L163" s="42" t="s">
+      <c r="L163" s="41" t="s">
         <v>372</v>
       </c>
       <c r="M163" s="36"/>
@@ -11912,7 +11909,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="31">
         <v>161.0</v>
       </c>
@@ -11932,10 +11929,10 @@
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
       <c r="I164" s="35"/>
-      <c r="J164" s="42" t="s">
+      <c r="J164" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K164" s="42" t="s">
+      <c r="K164" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L164" s="36"/>
@@ -11953,7 +11950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="31">
         <v>162.0</v>
       </c>
@@ -11973,10 +11970,10 @@
       <c r="G165" s="35"/>
       <c r="H165" s="35"/>
       <c r="I165" s="35"/>
-      <c r="J165" s="42" t="s">
+      <c r="J165" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K165" s="42" t="s">
+      <c r="K165" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L165" s="36"/>
@@ -11994,7 +11991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="31">
         <v>163.0</v>
       </c>
@@ -12014,10 +12011,10 @@
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
       <c r="I166" s="35"/>
-      <c r="J166" s="42" t="s">
+      <c r="J166" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K166" s="42" t="s">
+      <c r="K166" s="41" t="s">
         <v>106</v>
       </c>
       <c r="L166" s="36"/>
@@ -12035,7 +12032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="31">
         <v>164.0</v>
       </c>
@@ -12055,10 +12052,10 @@
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
       <c r="I167" s="35"/>
-      <c r="J167" s="42" t="s">
+      <c r="J167" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K167" s="42" t="s">
+      <c r="K167" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L167" s="36"/>
@@ -12076,7 +12073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="1">
       <c r="A168" s="31">
         <v>165.0</v>
       </c>
@@ -12096,10 +12093,10 @@
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
       <c r="I168" s="35"/>
-      <c r="J168" s="42" t="s">
+      <c r="J168" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K168" s="42" t="s">
+      <c r="K168" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L168" s="36"/>
@@ -12117,7 +12114,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="31">
         <v>166.0</v>
       </c>
@@ -12137,10 +12134,10 @@
       <c r="G169" s="35"/>
       <c r="H169" s="35"/>
       <c r="I169" s="35"/>
-      <c r="J169" s="42" t="s">
+      <c r="J169" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K169" s="42" t="s">
+      <c r="K169" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L169" s="36"/>
@@ -12158,7 +12155,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="31">
         <v>167.0</v>
       </c>
@@ -12178,10 +12175,10 @@
       <c r="G170" s="35"/>
       <c r="H170" s="35"/>
       <c r="I170" s="35"/>
-      <c r="J170" s="42" t="s">
+      <c r="J170" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K170" s="42" t="s">
+      <c r="K170" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L170" s="36"/>
@@ -12199,7 +12196,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="1">
       <c r="A171" s="31">
         <v>168.0</v>
       </c>
@@ -12219,10 +12216,10 @@
       <c r="G171" s="35"/>
       <c r="H171" s="35"/>
       <c r="I171" s="35"/>
-      <c r="J171" s="42" t="s">
+      <c r="J171" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K171" s="42" t="s">
+      <c r="K171" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L171" s="36"/>
@@ -12240,7 +12237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="1">
       <c r="A172" s="31">
         <v>169.0</v>
       </c>
@@ -12260,10 +12257,10 @@
       <c r="G172" s="35"/>
       <c r="H172" s="35"/>
       <c r="I172" s="35"/>
-      <c r="J172" s="42" t="s">
+      <c r="J172" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K172" s="42" t="s">
+      <c r="K172" s="41" t="s">
         <v>391</v>
       </c>
       <c r="L172" s="36"/>
@@ -13001,7 +12998,7 @@
         <v>431</v>
       </c>
       <c r="F192" s="40">
-        <v>45667.0</v>
+        <v>45685.0</v>
       </c>
       <c r="G192" s="41" t="s">
         <v>432</v>
@@ -13012,7 +13009,7 @@
       <c r="I192" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="J192" s="42" t="s">
+      <c r="J192" s="41" t="s">
         <v>65</v>
       </c>
       <c r="K192" s="36"/>
@@ -13159,7 +13156,7 @@
         <v>442</v>
       </c>
       <c r="F196" s="40">
-        <v>45670.0</v>
+        <v>45685.0</v>
       </c>
       <c r="G196" s="41" t="s">
         <v>443</v>
@@ -13170,7 +13167,7 @@
       <c r="I196" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="J196" s="42" t="s">
+      <c r="J196" s="41" t="s">
         <v>65</v>
       </c>
       <c r="K196" s="36"/>
@@ -13185,858 +13182,858 @@
       <c r="T196" s="36"/>
       <c r="U196" s="37"/>
       <c r="V196" s="38"/>
-      <c r="W196" s="44" t="s">
+      <c r="W196" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="197" ht="10.5" hidden="1" customHeight="1">
-      <c r="A197" s="45">
+      <c r="A197" s="44">
         <v>376.0</v>
       </c>
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C197" s="46" t="s">
+      <c r="C197" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="46" t="s">
+      <c r="D197" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="E197" s="47" t="s">
+      <c r="E197" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="F197" s="48"/>
-      <c r="G197" s="49"/>
-      <c r="H197" s="49"/>
-      <c r="I197" s="49"/>
-      <c r="J197" s="50"/>
-      <c r="K197" s="50"/>
-      <c r="L197" s="50"/>
-      <c r="M197" s="50"/>
-      <c r="N197" s="50"/>
-      <c r="O197" s="50"/>
-      <c r="P197" s="50"/>
-      <c r="Q197" s="50"/>
-      <c r="R197" s="50"/>
-      <c r="S197" s="50"/>
-      <c r="T197" s="50"/>
-      <c r="U197" s="51"/>
-      <c r="V197" s="52"/>
-      <c r="W197" s="53" t="s">
+      <c r="F197" s="47"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="48"/>
+      <c r="I197" s="48"/>
+      <c r="J197" s="49"/>
+      <c r="K197" s="49"/>
+      <c r="L197" s="49"/>
+      <c r="M197" s="49"/>
+      <c r="N197" s="49"/>
+      <c r="O197" s="49"/>
+      <c r="P197" s="49"/>
+      <c r="Q197" s="49"/>
+      <c r="R197" s="49"/>
+      <c r="S197" s="49"/>
+      <c r="T197" s="49"/>
+      <c r="U197" s="50"/>
+      <c r="V197" s="51"/>
+      <c r="W197" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="198" ht="10.5" hidden="1" customHeight="1">
-      <c r="A198" s="54">
+      <c r="A198" s="53">
         <v>417.0</v>
       </c>
-      <c r="B198" s="46" t="s">
+      <c r="B198" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C198" s="55" t="s">
+      <c r="C198" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="E198" s="57" t="s">
+      <c r="E198" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="F198" s="58"/>
-      <c r="G198" s="59"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="59"/>
-      <c r="J198" s="60"/>
-      <c r="K198" s="60"/>
-      <c r="L198" s="60"/>
-      <c r="M198" s="60"/>
-      <c r="N198" s="60"/>
-      <c r="O198" s="60"/>
-      <c r="P198" s="60"/>
-      <c r="Q198" s="60"/>
-      <c r="R198" s="60"/>
-      <c r="S198" s="60"/>
-      <c r="T198" s="60"/>
-      <c r="U198" s="61"/>
-      <c r="V198" s="62"/>
-      <c r="W198" s="63" t="s">
+      <c r="F198" s="57"/>
+      <c r="G198" s="58"/>
+      <c r="H198" s="58"/>
+      <c r="I198" s="58"/>
+      <c r="J198" s="59"/>
+      <c r="K198" s="59"/>
+      <c r="L198" s="59"/>
+      <c r="M198" s="59"/>
+      <c r="N198" s="59"/>
+      <c r="O198" s="59"/>
+      <c r="P198" s="59"/>
+      <c r="Q198" s="59"/>
+      <c r="R198" s="59"/>
+      <c r="S198" s="59"/>
+      <c r="T198" s="59"/>
+      <c r="U198" s="60"/>
+      <c r="V198" s="61"/>
+      <c r="W198" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="199" ht="10.5" hidden="1" customHeight="1">
-      <c r="A199" s="54">
+      <c r="A199" s="53">
         <v>418.0</v>
       </c>
-      <c r="B199" s="46" t="s">
+      <c r="B199" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C199" s="55" t="s">
+      <c r="C199" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D199" s="56" t="s">
+      <c r="D199" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="E199" s="64" t="s">
+      <c r="E199" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="F199" s="58"/>
-      <c r="G199" s="59"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
-      <c r="J199" s="60"/>
-      <c r="K199" s="60"/>
-      <c r="L199" s="60"/>
-      <c r="M199" s="60"/>
-      <c r="N199" s="60"/>
-      <c r="O199" s="60"/>
-      <c r="P199" s="60"/>
-      <c r="Q199" s="60"/>
-      <c r="R199" s="60"/>
-      <c r="S199" s="60"/>
-      <c r="T199" s="60"/>
-      <c r="U199" s="61"/>
-      <c r="V199" s="62"/>
-      <c r="W199" s="63" t="s">
+      <c r="F199" s="57"/>
+      <c r="G199" s="58"/>
+      <c r="H199" s="58"/>
+      <c r="I199" s="58"/>
+      <c r="J199" s="59"/>
+      <c r="K199" s="59"/>
+      <c r="L199" s="59"/>
+      <c r="M199" s="59"/>
+      <c r="N199" s="59"/>
+      <c r="O199" s="59"/>
+      <c r="P199" s="59"/>
+      <c r="Q199" s="59"/>
+      <c r="R199" s="59"/>
+      <c r="S199" s="59"/>
+      <c r="T199" s="59"/>
+      <c r="U199" s="60"/>
+      <c r="V199" s="61"/>
+      <c r="W199" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="200" ht="10.5" hidden="1" customHeight="1">
-      <c r="A200" s="54">
+      <c r="A200" s="53">
         <v>419.0</v>
       </c>
-      <c r="B200" s="46" t="s">
+      <c r="B200" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C200" s="55" t="s">
+      <c r="C200" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D200" s="56" t="s">
+      <c r="D200" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="E200" s="64" t="s">
+      <c r="E200" s="63" t="s">
         <v>454</v>
       </c>
-      <c r="F200" s="58"/>
-      <c r="G200" s="59"/>
-      <c r="H200" s="59"/>
-      <c r="I200" s="59"/>
-      <c r="J200" s="60"/>
-      <c r="K200" s="60"/>
-      <c r="L200" s="60"/>
-      <c r="M200" s="60"/>
-      <c r="N200" s="60"/>
-      <c r="O200" s="60"/>
-      <c r="P200" s="60"/>
-      <c r="Q200" s="60"/>
-      <c r="R200" s="60"/>
-      <c r="S200" s="60"/>
-      <c r="T200" s="60"/>
-      <c r="U200" s="61"/>
-      <c r="V200" s="62"/>
-      <c r="W200" s="63" t="s">
+      <c r="F200" s="57"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="58"/>
+      <c r="I200" s="58"/>
+      <c r="J200" s="59"/>
+      <c r="K200" s="59"/>
+      <c r="L200" s="59"/>
+      <c r="M200" s="59"/>
+      <c r="N200" s="59"/>
+      <c r="O200" s="59"/>
+      <c r="P200" s="59"/>
+      <c r="Q200" s="59"/>
+      <c r="R200" s="59"/>
+      <c r="S200" s="59"/>
+      <c r="T200" s="59"/>
+      <c r="U200" s="60"/>
+      <c r="V200" s="61"/>
+      <c r="W200" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="201" ht="10.5" hidden="1" customHeight="1">
-      <c r="A201" s="54">
+      <c r="A201" s="53">
         <v>423.0</v>
       </c>
-      <c r="B201" s="46" t="s">
+      <c r="B201" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C201" s="55" t="s">
+      <c r="C201" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D201" s="56" t="s">
+      <c r="D201" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="E201" s="64" t="s">
+      <c r="E201" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="F201" s="58"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
-      <c r="J201" s="60"/>
-      <c r="K201" s="60"/>
-      <c r="L201" s="60"/>
-      <c r="M201" s="60"/>
-      <c r="N201" s="60"/>
-      <c r="O201" s="60"/>
-      <c r="P201" s="60"/>
-      <c r="Q201" s="60"/>
-      <c r="R201" s="60"/>
-      <c r="S201" s="60"/>
-      <c r="T201" s="60"/>
-      <c r="U201" s="61"/>
-      <c r="V201" s="62"/>
-      <c r="W201" s="63" t="s">
+      <c r="F201" s="57"/>
+      <c r="G201" s="58"/>
+      <c r="H201" s="58"/>
+      <c r="I201" s="58"/>
+      <c r="J201" s="59"/>
+      <c r="K201" s="59"/>
+      <c r="L201" s="59"/>
+      <c r="M201" s="59"/>
+      <c r="N201" s="59"/>
+      <c r="O201" s="59"/>
+      <c r="P201" s="59"/>
+      <c r="Q201" s="59"/>
+      <c r="R201" s="59"/>
+      <c r="S201" s="59"/>
+      <c r="T201" s="59"/>
+      <c r="U201" s="60"/>
+      <c r="V201" s="61"/>
+      <c r="W201" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="202" ht="10.5" hidden="1" customHeight="1">
-      <c r="A202" s="54">
+      <c r="A202" s="53">
         <v>424.0</v>
       </c>
-      <c r="B202" s="46" t="s">
+      <c r="B202" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C202" s="55" t="s">
+      <c r="C202" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D202" s="56" t="s">
+      <c r="D202" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="E202" s="64" t="s">
+      <c r="E202" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="F202" s="58"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="59"/>
-      <c r="I202" s="59"/>
-      <c r="J202" s="60"/>
-      <c r="K202" s="60"/>
-      <c r="L202" s="60"/>
-      <c r="M202" s="60"/>
-      <c r="N202" s="60"/>
-      <c r="O202" s="60"/>
-      <c r="P202" s="60"/>
-      <c r="Q202" s="60"/>
-      <c r="R202" s="60"/>
-      <c r="S202" s="60"/>
-      <c r="T202" s="60"/>
-      <c r="U202" s="61"/>
-      <c r="V202" s="62"/>
-      <c r="W202" s="63" t="s">
+      <c r="F202" s="57"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="58"/>
+      <c r="I202" s="58"/>
+      <c r="J202" s="59"/>
+      <c r="K202" s="59"/>
+      <c r="L202" s="59"/>
+      <c r="M202" s="59"/>
+      <c r="N202" s="59"/>
+      <c r="O202" s="59"/>
+      <c r="P202" s="59"/>
+      <c r="Q202" s="59"/>
+      <c r="R202" s="59"/>
+      <c r="S202" s="59"/>
+      <c r="T202" s="59"/>
+      <c r="U202" s="60"/>
+      <c r="V202" s="61"/>
+      <c r="W202" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="203" ht="10.5" hidden="1" customHeight="1">
-      <c r="A203" s="54">
+      <c r="A203" s="53">
         <v>425.0</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C203" s="55" t="s">
+      <c r="C203" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D203" s="56" t="s">
+      <c r="D203" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="E203" s="64" t="s">
+      <c r="E203" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="F203" s="58"/>
-      <c r="G203" s="59"/>
-      <c r="H203" s="59"/>
-      <c r="I203" s="59"/>
-      <c r="J203" s="60"/>
-      <c r="K203" s="60"/>
-      <c r="L203" s="60"/>
-      <c r="M203" s="60"/>
-      <c r="N203" s="60"/>
-      <c r="O203" s="60"/>
-      <c r="P203" s="60"/>
-      <c r="Q203" s="60"/>
-      <c r="R203" s="60"/>
-      <c r="S203" s="60"/>
-      <c r="T203" s="60"/>
-      <c r="U203" s="61"/>
-      <c r="V203" s="62"/>
-      <c r="W203" s="63" t="s">
+      <c r="F203" s="57"/>
+      <c r="G203" s="58"/>
+      <c r="H203" s="58"/>
+      <c r="I203" s="58"/>
+      <c r="J203" s="59"/>
+      <c r="K203" s="59"/>
+      <c r="L203" s="59"/>
+      <c r="M203" s="59"/>
+      <c r="N203" s="59"/>
+      <c r="O203" s="59"/>
+      <c r="P203" s="59"/>
+      <c r="Q203" s="59"/>
+      <c r="R203" s="59"/>
+      <c r="S203" s="59"/>
+      <c r="T203" s="59"/>
+      <c r="U203" s="60"/>
+      <c r="V203" s="61"/>
+      <c r="W203" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="204" ht="10.5" hidden="1" customHeight="1">
-      <c r="A204" s="54">
+      <c r="A204" s="53">
         <v>426.0</v>
       </c>
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C204" s="55" t="s">
+      <c r="C204" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D204" s="56" t="s">
+      <c r="D204" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="E204" s="64" t="s">
+      <c r="E204" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="F204" s="58"/>
-      <c r="G204" s="59"/>
-      <c r="H204" s="59"/>
-      <c r="I204" s="59"/>
-      <c r="J204" s="60"/>
-      <c r="K204" s="60"/>
-      <c r="L204" s="60"/>
-      <c r="M204" s="60"/>
-      <c r="N204" s="60"/>
-      <c r="O204" s="60"/>
-      <c r="P204" s="60"/>
-      <c r="Q204" s="60"/>
-      <c r="R204" s="60"/>
-      <c r="S204" s="60"/>
-      <c r="T204" s="60"/>
-      <c r="U204" s="61"/>
-      <c r="V204" s="62"/>
-      <c r="W204" s="63" t="s">
+      <c r="F204" s="57"/>
+      <c r="G204" s="58"/>
+      <c r="H204" s="58"/>
+      <c r="I204" s="58"/>
+      <c r="J204" s="59"/>
+      <c r="K204" s="59"/>
+      <c r="L204" s="59"/>
+      <c r="M204" s="59"/>
+      <c r="N204" s="59"/>
+      <c r="O204" s="59"/>
+      <c r="P204" s="59"/>
+      <c r="Q204" s="59"/>
+      <c r="R204" s="59"/>
+      <c r="S204" s="59"/>
+      <c r="T204" s="59"/>
+      <c r="U204" s="60"/>
+      <c r="V204" s="61"/>
+      <c r="W204" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="205" ht="10.5" hidden="1" customHeight="1">
-      <c r="A205" s="54">
+      <c r="A205" s="53">
         <v>432.0</v>
       </c>
-      <c r="B205" s="46" t="s">
+      <c r="B205" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C205" s="55" t="s">
+      <c r="C205" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D205" s="56" t="s">
+      <c r="D205" s="55" t="s">
         <v>463</v>
       </c>
-      <c r="E205" s="64" t="s">
+      <c r="E205" s="63" t="s">
         <v>464</v>
       </c>
-      <c r="F205" s="58"/>
-      <c r="G205" s="59"/>
-      <c r="H205" s="59"/>
-      <c r="I205" s="59"/>
-      <c r="J205" s="60"/>
-      <c r="K205" s="60"/>
-      <c r="L205" s="60"/>
-      <c r="M205" s="60"/>
-      <c r="N205" s="60"/>
-      <c r="O205" s="60"/>
-      <c r="P205" s="60"/>
-      <c r="Q205" s="60"/>
-      <c r="R205" s="60"/>
-      <c r="S205" s="60"/>
-      <c r="T205" s="60"/>
-      <c r="U205" s="61"/>
-      <c r="V205" s="62"/>
-      <c r="W205" s="63" t="s">
+      <c r="F205" s="57"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="58"/>
+      <c r="I205" s="58"/>
+      <c r="J205" s="59"/>
+      <c r="K205" s="59"/>
+      <c r="L205" s="59"/>
+      <c r="M205" s="59"/>
+      <c r="N205" s="59"/>
+      <c r="O205" s="59"/>
+      <c r="P205" s="59"/>
+      <c r="Q205" s="59"/>
+      <c r="R205" s="59"/>
+      <c r="S205" s="59"/>
+      <c r="T205" s="59"/>
+      <c r="U205" s="60"/>
+      <c r="V205" s="61"/>
+      <c r="W205" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="206" ht="10.5" hidden="1" customHeight="1">
-      <c r="A206" s="54">
+      <c r="A206" s="53">
         <v>433.0</v>
       </c>
-      <c r="B206" s="46" t="s">
+      <c r="B206" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C206" s="55" t="s">
+      <c r="C206" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D206" s="56" t="s">
+      <c r="D206" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="E206" s="64" t="s">
+      <c r="E206" s="63" t="s">
         <v>466</v>
       </c>
-      <c r="F206" s="58"/>
-      <c r="G206" s="59"/>
-      <c r="H206" s="59"/>
-      <c r="I206" s="59"/>
-      <c r="J206" s="60"/>
-      <c r="K206" s="60"/>
-      <c r="L206" s="60"/>
-      <c r="M206" s="60"/>
-      <c r="N206" s="60"/>
-      <c r="O206" s="60"/>
-      <c r="P206" s="60"/>
-      <c r="Q206" s="60"/>
-      <c r="R206" s="60"/>
-      <c r="S206" s="60"/>
-      <c r="T206" s="60"/>
-      <c r="U206" s="61"/>
-      <c r="V206" s="62"/>
-      <c r="W206" s="63" t="s">
+      <c r="F206" s="57"/>
+      <c r="G206" s="58"/>
+      <c r="H206" s="58"/>
+      <c r="I206" s="58"/>
+      <c r="J206" s="59"/>
+      <c r="K206" s="59"/>
+      <c r="L206" s="59"/>
+      <c r="M206" s="59"/>
+      <c r="N206" s="59"/>
+      <c r="O206" s="59"/>
+      <c r="P206" s="59"/>
+      <c r="Q206" s="59"/>
+      <c r="R206" s="59"/>
+      <c r="S206" s="59"/>
+      <c r="T206" s="59"/>
+      <c r="U206" s="60"/>
+      <c r="V206" s="61"/>
+      <c r="W206" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="207" ht="10.5" hidden="1" customHeight="1">
-      <c r="A207" s="54">
+      <c r="A207" s="53">
         <v>434.0</v>
       </c>
-      <c r="B207" s="46" t="s">
+      <c r="B207" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C207" s="55" t="s">
+      <c r="C207" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D207" s="56" t="s">
+      <c r="D207" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="E207" s="64" t="s">
+      <c r="E207" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="F207" s="58"/>
-      <c r="G207" s="59"/>
-      <c r="H207" s="59"/>
-      <c r="I207" s="59"/>
-      <c r="J207" s="60"/>
-      <c r="K207" s="60"/>
-      <c r="L207" s="60"/>
-      <c r="M207" s="60"/>
-      <c r="N207" s="60"/>
-      <c r="O207" s="60"/>
-      <c r="P207" s="60"/>
-      <c r="Q207" s="60"/>
-      <c r="R207" s="60"/>
-      <c r="S207" s="60"/>
-      <c r="T207" s="60"/>
-      <c r="U207" s="61"/>
-      <c r="V207" s="62"/>
-      <c r="W207" s="63" t="s">
+      <c r="F207" s="57"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="58"/>
+      <c r="I207" s="58"/>
+      <c r="J207" s="59"/>
+      <c r="K207" s="59"/>
+      <c r="L207" s="59"/>
+      <c r="M207" s="59"/>
+      <c r="N207" s="59"/>
+      <c r="O207" s="59"/>
+      <c r="P207" s="59"/>
+      <c r="Q207" s="59"/>
+      <c r="R207" s="59"/>
+      <c r="S207" s="59"/>
+      <c r="T207" s="59"/>
+      <c r="U207" s="60"/>
+      <c r="V207" s="61"/>
+      <c r="W207" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="208" ht="10.5" hidden="1" customHeight="1">
-      <c r="A208" s="54">
+      <c r="A208" s="53">
         <v>435.0</v>
       </c>
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C208" s="55" t="s">
+      <c r="C208" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D208" s="56" t="s">
+      <c r="D208" s="55" t="s">
         <v>469</v>
       </c>
-      <c r="E208" s="64" t="s">
+      <c r="E208" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="F208" s="58"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
-      <c r="J208" s="60"/>
-      <c r="K208" s="60"/>
-      <c r="L208" s="60"/>
-      <c r="M208" s="60"/>
-      <c r="N208" s="60"/>
-      <c r="O208" s="60"/>
-      <c r="P208" s="60"/>
-      <c r="Q208" s="60"/>
-      <c r="R208" s="60"/>
-      <c r="S208" s="60"/>
-      <c r="T208" s="60"/>
-      <c r="U208" s="61"/>
-      <c r="V208" s="62"/>
-      <c r="W208" s="63" t="s">
+      <c r="F208" s="57"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="58"/>
+      <c r="J208" s="59"/>
+      <c r="K208" s="59"/>
+      <c r="L208" s="59"/>
+      <c r="M208" s="59"/>
+      <c r="N208" s="59"/>
+      <c r="O208" s="59"/>
+      <c r="P208" s="59"/>
+      <c r="Q208" s="59"/>
+      <c r="R208" s="59"/>
+      <c r="S208" s="59"/>
+      <c r="T208" s="59"/>
+      <c r="U208" s="60"/>
+      <c r="V208" s="61"/>
+      <c r="W208" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="209" ht="10.5" hidden="1" customHeight="1">
-      <c r="A209" s="54">
+      <c r="A209" s="53">
         <v>437.0</v>
       </c>
-      <c r="B209" s="46" t="s">
+      <c r="B209" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C209" s="55" t="s">
+      <c r="C209" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D209" s="56" t="s">
+      <c r="D209" s="55" t="s">
         <v>471</v>
       </c>
-      <c r="E209" s="64" t="s">
+      <c r="E209" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="F209" s="58"/>
-      <c r="G209" s="59"/>
-      <c r="H209" s="59"/>
-      <c r="I209" s="59"/>
-      <c r="J209" s="60"/>
-      <c r="K209" s="60"/>
-      <c r="L209" s="60"/>
-      <c r="M209" s="60"/>
-      <c r="N209" s="60"/>
-      <c r="O209" s="60"/>
-      <c r="P209" s="60"/>
-      <c r="Q209" s="60"/>
-      <c r="R209" s="60"/>
-      <c r="S209" s="60"/>
-      <c r="T209" s="60"/>
-      <c r="U209" s="61"/>
-      <c r="V209" s="62"/>
-      <c r="W209" s="63" t="s">
+      <c r="F209" s="57"/>
+      <c r="G209" s="58"/>
+      <c r="H209" s="58"/>
+      <c r="I209" s="58"/>
+      <c r="J209" s="59"/>
+      <c r="K209" s="59"/>
+      <c r="L209" s="59"/>
+      <c r="M209" s="59"/>
+      <c r="N209" s="59"/>
+      <c r="O209" s="59"/>
+      <c r="P209" s="59"/>
+      <c r="Q209" s="59"/>
+      <c r="R209" s="59"/>
+      <c r="S209" s="59"/>
+      <c r="T209" s="59"/>
+      <c r="U209" s="60"/>
+      <c r="V209" s="61"/>
+      <c r="W209" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="210" ht="10.5" hidden="1" customHeight="1">
-      <c r="A210" s="54">
+      <c r="A210" s="53">
         <v>438.0</v>
       </c>
-      <c r="B210" s="46" t="s">
+      <c r="B210" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C210" s="55" t="s">
+      <c r="C210" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D210" s="56" t="s">
+      <c r="D210" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="E210" s="64" t="s">
+      <c r="E210" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="F210" s="58"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
-      <c r="I210" s="59"/>
-      <c r="J210" s="60"/>
-      <c r="K210" s="60"/>
-      <c r="L210" s="60"/>
-      <c r="M210" s="60"/>
-      <c r="N210" s="60"/>
-      <c r="O210" s="60"/>
-      <c r="P210" s="60"/>
-      <c r="Q210" s="60"/>
-      <c r="R210" s="60"/>
-      <c r="S210" s="60"/>
-      <c r="T210" s="60"/>
-      <c r="U210" s="61"/>
-      <c r="V210" s="62"/>
-      <c r="W210" s="63" t="s">
+      <c r="F210" s="57"/>
+      <c r="G210" s="58"/>
+      <c r="H210" s="58"/>
+      <c r="I210" s="58"/>
+      <c r="J210" s="59"/>
+      <c r="K210" s="59"/>
+      <c r="L210" s="59"/>
+      <c r="M210" s="59"/>
+      <c r="N210" s="59"/>
+      <c r="O210" s="59"/>
+      <c r="P210" s="59"/>
+      <c r="Q210" s="59"/>
+      <c r="R210" s="59"/>
+      <c r="S210" s="59"/>
+      <c r="T210" s="59"/>
+      <c r="U210" s="60"/>
+      <c r="V210" s="61"/>
+      <c r="W210" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="211" ht="10.5" hidden="1" customHeight="1">
-      <c r="A211" s="54">
+      <c r="A211" s="53">
         <v>440.0</v>
       </c>
-      <c r="B211" s="46" t="s">
+      <c r="B211" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C211" s="55" t="s">
+      <c r="C211" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D211" s="56" t="s">
+      <c r="D211" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="E211" s="64" t="s">
+      <c r="E211" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="F211" s="58"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="59"/>
-      <c r="J211" s="60"/>
-      <c r="K211" s="60"/>
-      <c r="L211" s="60"/>
-      <c r="M211" s="60"/>
-      <c r="N211" s="60"/>
-      <c r="O211" s="60"/>
-      <c r="P211" s="60"/>
-      <c r="Q211" s="60"/>
-      <c r="R211" s="60"/>
-      <c r="S211" s="60"/>
-      <c r="T211" s="60"/>
-      <c r="U211" s="61"/>
-      <c r="V211" s="62"/>
-      <c r="W211" s="63" t="s">
+      <c r="F211" s="57"/>
+      <c r="G211" s="58"/>
+      <c r="H211" s="58"/>
+      <c r="I211" s="58"/>
+      <c r="J211" s="59"/>
+      <c r="K211" s="59"/>
+      <c r="L211" s="59"/>
+      <c r="M211" s="59"/>
+      <c r="N211" s="59"/>
+      <c r="O211" s="59"/>
+      <c r="P211" s="59"/>
+      <c r="Q211" s="59"/>
+      <c r="R211" s="59"/>
+      <c r="S211" s="59"/>
+      <c r="T211" s="59"/>
+      <c r="U211" s="60"/>
+      <c r="V211" s="61"/>
+      <c r="W211" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="212" ht="10.5" hidden="1" customHeight="1">
-      <c r="A212" s="54">
+      <c r="A212" s="53">
         <v>441.0</v>
       </c>
-      <c r="B212" s="46" t="s">
+      <c r="B212" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C212" s="55" t="s">
+      <c r="C212" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D212" s="56" t="s">
+      <c r="D212" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="E212" s="64" t="s">
+      <c r="E212" s="63" t="s">
         <v>478</v>
       </c>
-      <c r="F212" s="58"/>
-      <c r="G212" s="59"/>
-      <c r="H212" s="59"/>
-      <c r="I212" s="59"/>
-      <c r="J212" s="60"/>
-      <c r="K212" s="60"/>
-      <c r="L212" s="60"/>
-      <c r="M212" s="60"/>
-      <c r="N212" s="60"/>
-      <c r="O212" s="60"/>
-      <c r="P212" s="60"/>
-      <c r="Q212" s="60"/>
-      <c r="R212" s="60"/>
-      <c r="S212" s="60"/>
-      <c r="T212" s="60"/>
-      <c r="U212" s="61"/>
-      <c r="V212" s="62"/>
-      <c r="W212" s="63" t="s">
+      <c r="F212" s="57"/>
+      <c r="G212" s="58"/>
+      <c r="H212" s="58"/>
+      <c r="I212" s="58"/>
+      <c r="J212" s="59"/>
+      <c r="K212" s="59"/>
+      <c r="L212" s="59"/>
+      <c r="M212" s="59"/>
+      <c r="N212" s="59"/>
+      <c r="O212" s="59"/>
+      <c r="P212" s="59"/>
+      <c r="Q212" s="59"/>
+      <c r="R212" s="59"/>
+      <c r="S212" s="59"/>
+      <c r="T212" s="59"/>
+      <c r="U212" s="60"/>
+      <c r="V212" s="61"/>
+      <c r="W212" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="213" ht="10.5" hidden="1" customHeight="1">
-      <c r="A213" s="45">
+      <c r="A213" s="44">
         <v>442.0</v>
       </c>
-      <c r="B213" s="46" t="s">
+      <c r="B213" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C213" s="46" t="s">
+      <c r="C213" s="45" t="s">
         <v>448</v>
       </c>
-      <c r="D213" s="46" t="s">
+      <c r="D213" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="E213" s="47" t="s">
+      <c r="E213" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="F213" s="48"/>
-      <c r="G213" s="49"/>
-      <c r="H213" s="49"/>
-      <c r="I213" s="49"/>
-      <c r="J213" s="50"/>
-      <c r="K213" s="50"/>
-      <c r="L213" s="50"/>
-      <c r="M213" s="50"/>
-      <c r="N213" s="50"/>
-      <c r="O213" s="50"/>
-      <c r="P213" s="50"/>
-      <c r="Q213" s="50"/>
-      <c r="R213" s="50"/>
-      <c r="S213" s="50"/>
-      <c r="T213" s="50"/>
-      <c r="U213" s="51"/>
-      <c r="V213" s="65"/>
-      <c r="W213" s="66" t="s">
+      <c r="F213" s="47"/>
+      <c r="G213" s="48"/>
+      <c r="H213" s="48"/>
+      <c r="I213" s="48"/>
+      <c r="J213" s="49"/>
+      <c r="K213" s="49"/>
+      <c r="L213" s="49"/>
+      <c r="M213" s="49"/>
+      <c r="N213" s="49"/>
+      <c r="O213" s="49"/>
+      <c r="P213" s="49"/>
+      <c r="Q213" s="49"/>
+      <c r="R213" s="49"/>
+      <c r="S213" s="49"/>
+      <c r="T213" s="49"/>
+      <c r="U213" s="50"/>
+      <c r="V213" s="64"/>
+      <c r="W213" s="65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="214" ht="10.5" hidden="1" customHeight="1">
-      <c r="A214" s="54">
+      <c r="A214" s="53">
         <v>443.0</v>
       </c>
-      <c r="B214" s="55" t="s">
+      <c r="B214" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C214" s="55" t="s">
+      <c r="C214" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D214" s="55" t="s">
+      <c r="D214" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="E214" s="57" t="s">
+      <c r="E214" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="F214" s="58"/>
-      <c r="G214" s="59"/>
-      <c r="H214" s="59"/>
-      <c r="I214" s="59"/>
-      <c r="J214" s="60"/>
-      <c r="K214" s="60"/>
-      <c r="L214" s="60"/>
-      <c r="M214" s="60"/>
-      <c r="N214" s="60"/>
-      <c r="O214" s="60"/>
-      <c r="P214" s="60"/>
-      <c r="Q214" s="60"/>
-      <c r="R214" s="60"/>
-      <c r="S214" s="60"/>
-      <c r="T214" s="60"/>
-      <c r="U214" s="61"/>
-      <c r="V214" s="62"/>
-      <c r="W214" s="63" t="s">
+      <c r="F214" s="57"/>
+      <c r="G214" s="58"/>
+      <c r="H214" s="58"/>
+      <c r="I214" s="58"/>
+      <c r="J214" s="59"/>
+      <c r="K214" s="59"/>
+      <c r="L214" s="59"/>
+      <c r="M214" s="59"/>
+      <c r="N214" s="59"/>
+      <c r="O214" s="59"/>
+      <c r="P214" s="59"/>
+      <c r="Q214" s="59"/>
+      <c r="R214" s="59"/>
+      <c r="S214" s="59"/>
+      <c r="T214" s="59"/>
+      <c r="U214" s="60"/>
+      <c r="V214" s="61"/>
+      <c r="W214" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="215" ht="10.5" hidden="1" customHeight="1">
-      <c r="A215" s="54">
+      <c r="A215" s="53">
         <v>444.0</v>
       </c>
-      <c r="B215" s="55" t="s">
+      <c r="B215" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C215" s="55" t="s">
+      <c r="C215" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D215" s="55" t="s">
+      <c r="D215" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="E215" s="57" t="s">
+      <c r="E215" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="F215" s="58"/>
-      <c r="G215" s="59"/>
-      <c r="H215" s="59"/>
-      <c r="I215" s="59"/>
-      <c r="J215" s="60"/>
-      <c r="K215" s="60"/>
-      <c r="L215" s="60"/>
-      <c r="M215" s="60"/>
-      <c r="N215" s="60"/>
-      <c r="O215" s="60"/>
-      <c r="P215" s="60"/>
-      <c r="Q215" s="60"/>
-      <c r="R215" s="60"/>
-      <c r="S215" s="60"/>
-      <c r="T215" s="60"/>
-      <c r="U215" s="61"/>
-      <c r="V215" s="62"/>
-      <c r="W215" s="63" t="s">
+      <c r="F215" s="57"/>
+      <c r="G215" s="58"/>
+      <c r="H215" s="58"/>
+      <c r="I215" s="58"/>
+      <c r="J215" s="59"/>
+      <c r="K215" s="59"/>
+      <c r="L215" s="59"/>
+      <c r="M215" s="59"/>
+      <c r="N215" s="59"/>
+      <c r="O215" s="59"/>
+      <c r="P215" s="59"/>
+      <c r="Q215" s="59"/>
+      <c r="R215" s="59"/>
+      <c r="S215" s="59"/>
+      <c r="T215" s="59"/>
+      <c r="U215" s="60"/>
+      <c r="V215" s="61"/>
+      <c r="W215" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="216" ht="10.5" hidden="1" customHeight="1">
-      <c r="A216" s="54">
+      <c r="A216" s="53">
         <v>445.0</v>
       </c>
-      <c r="B216" s="55" t="s">
+      <c r="B216" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C216" s="55" t="s">
+      <c r="C216" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D216" s="55" t="s">
+      <c r="D216" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="E216" s="57" t="s">
+      <c r="E216" s="56" t="s">
         <v>486</v>
       </c>
-      <c r="F216" s="58"/>
-      <c r="G216" s="59"/>
-      <c r="H216" s="59"/>
-      <c r="I216" s="59"/>
-      <c r="J216" s="60"/>
-      <c r="K216" s="60"/>
-      <c r="L216" s="60"/>
-      <c r="M216" s="60"/>
-      <c r="N216" s="60"/>
-      <c r="O216" s="60"/>
-      <c r="P216" s="60"/>
-      <c r="Q216" s="60"/>
-      <c r="R216" s="60"/>
-      <c r="S216" s="60"/>
-      <c r="T216" s="60"/>
-      <c r="U216" s="61"/>
-      <c r="V216" s="62"/>
-      <c r="W216" s="63" t="s">
+      <c r="F216" s="57"/>
+      <c r="G216" s="58"/>
+      <c r="H216" s="58"/>
+      <c r="I216" s="58"/>
+      <c r="J216" s="59"/>
+      <c r="K216" s="59"/>
+      <c r="L216" s="59"/>
+      <c r="M216" s="59"/>
+      <c r="N216" s="59"/>
+      <c r="O216" s="59"/>
+      <c r="P216" s="59"/>
+      <c r="Q216" s="59"/>
+      <c r="R216" s="59"/>
+      <c r="S216" s="59"/>
+      <c r="T216" s="59"/>
+      <c r="U216" s="60"/>
+      <c r="V216" s="61"/>
+      <c r="W216" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="217" ht="14.25" hidden="1" customHeight="1">
-      <c r="A217" s="45">
+      <c r="A217" s="44">
         <v>446.0</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C217" s="46" t="s">
+      <c r="C217" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D217" s="46" t="s">
+      <c r="D217" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="E217" s="47" t="s">
+      <c r="E217" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="F217" s="48"/>
-      <c r="G217" s="49"/>
-      <c r="H217" s="49"/>
-      <c r="I217" s="49"/>
-      <c r="J217" s="50"/>
-      <c r="K217" s="50"/>
-      <c r="L217" s="50"/>
-      <c r="M217" s="50"/>
-      <c r="N217" s="50"/>
-      <c r="O217" s="50"/>
-      <c r="P217" s="50"/>
-      <c r="Q217" s="50"/>
-      <c r="R217" s="50"/>
-      <c r="S217" s="50"/>
-      <c r="T217" s="50"/>
-      <c r="U217" s="51"/>
-      <c r="V217" s="65"/>
-      <c r="W217" s="66" t="s">
+      <c r="F217" s="47"/>
+      <c r="G217" s="48"/>
+      <c r="H217" s="48"/>
+      <c r="I217" s="48"/>
+      <c r="J217" s="49"/>
+      <c r="K217" s="49"/>
+      <c r="L217" s="49"/>
+      <c r="M217" s="49"/>
+      <c r="N217" s="49"/>
+      <c r="O217" s="49"/>
+      <c r="P217" s="49"/>
+      <c r="Q217" s="49"/>
+      <c r="R217" s="49"/>
+      <c r="S217" s="49"/>
+      <c r="T217" s="49"/>
+      <c r="U217" s="50"/>
+      <c r="V217" s="64"/>
+      <c r="W217" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="218" ht="14.25" hidden="1" customHeight="1">
-      <c r="A218" s="54">
+      <c r="A218" s="53">
         <v>447.0</v>
       </c>
-      <c r="B218" s="55" t="s">
+      <c r="B218" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C218" s="55" t="s">
+      <c r="C218" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D218" s="55" t="s">
+      <c r="D218" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="E218" s="57" t="s">
+      <c r="E218" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="F218" s="58"/>
-      <c r="G218" s="59"/>
-      <c r="H218" s="59"/>
-      <c r="I218" s="59"/>
-      <c r="J218" s="60"/>
-      <c r="K218" s="60"/>
-      <c r="L218" s="60"/>
-      <c r="M218" s="60"/>
-      <c r="N218" s="60"/>
-      <c r="O218" s="60"/>
-      <c r="P218" s="60"/>
-      <c r="Q218" s="60"/>
-      <c r="R218" s="60"/>
-      <c r="S218" s="60"/>
-      <c r="T218" s="60"/>
-      <c r="U218" s="61"/>
-      <c r="V218" s="62"/>
-      <c r="W218" s="63" t="s">
+      <c r="F218" s="57"/>
+      <c r="G218" s="58"/>
+      <c r="H218" s="58"/>
+      <c r="I218" s="58"/>
+      <c r="J218" s="59"/>
+      <c r="K218" s="59"/>
+      <c r="L218" s="59"/>
+      <c r="M218" s="59"/>
+      <c r="N218" s="59"/>
+      <c r="O218" s="59"/>
+      <c r="P218" s="59"/>
+      <c r="Q218" s="59"/>
+      <c r="R218" s="59"/>
+      <c r="S218" s="59"/>
+      <c r="T218" s="59"/>
+      <c r="U218" s="60"/>
+      <c r="V218" s="61"/>
+      <c r="W218" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="219" ht="14.25" hidden="1" customHeight="1">
-      <c r="A219" s="54">
+      <c r="A219" s="53">
         <v>460.0</v>
       </c>
-      <c r="B219" s="55" t="s">
+      <c r="B219" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C219" s="55" t="s">
+      <c r="C219" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D219" s="55" t="s">
+      <c r="D219" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="E219" s="57" t="s">
+      <c r="E219" s="56" t="s">
         <v>492</v>
       </c>
-      <c r="F219" s="58"/>
-      <c r="G219" s="59"/>
-      <c r="H219" s="59"/>
-      <c r="I219" s="59"/>
-      <c r="J219" s="60"/>
-      <c r="K219" s="60"/>
-      <c r="L219" s="60"/>
-      <c r="M219" s="60"/>
-      <c r="N219" s="60"/>
-      <c r="O219" s="60"/>
-      <c r="P219" s="60"/>
-      <c r="Q219" s="60"/>
-      <c r="R219" s="60"/>
-      <c r="S219" s="60"/>
-      <c r="T219" s="60"/>
-      <c r="U219" s="61"/>
-      <c r="V219" s="62"/>
-      <c r="W219" s="63" t="s">
+      <c r="F219" s="57"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="58"/>
+      <c r="I219" s="58"/>
+      <c r="J219" s="59"/>
+      <c r="K219" s="59"/>
+      <c r="L219" s="59"/>
+      <c r="M219" s="59"/>
+      <c r="N219" s="59"/>
+      <c r="O219" s="59"/>
+      <c r="P219" s="59"/>
+      <c r="Q219" s="59"/>
+      <c r="R219" s="59"/>
+      <c r="S219" s="59"/>
+      <c r="T219" s="59"/>
+      <c r="U219" s="60"/>
+      <c r="V219" s="61"/>
+      <c r="W219" s="62" t="s">
         <v>50</v>
       </c>
     </row>
@@ -18157,6 +18154,11 @@
       <filters>
         <filter val="RSA"/>
         <filter val="LDO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="SI"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18202,42 +18204,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>176</v>
       </c>
     </row>
@@ -19264,162 +19266,162 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>446.447</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>514</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>517</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>500</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>519</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="73" t="s">
         <v>520</v>
       </c>
     </row>
@@ -22415,26 +22417,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>68</v>
       </c>
     </row>

--- a/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
@@ -314,13 +314,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>15:14:11</t>
-  </si>
-  <si>
-    <t>bfa48130615e1554</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.6be277607df90825720cee6fc1977a35738026206d8d2da6fc98b8d08442aa43.1425ed0acd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>08:23:50</t>
+  </si>
+  <si>
+    <t>fd1c0096d3a94406</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.56a088061ae2283cc528f884aa12966f8cbd0b2cbc51b70ffae801261b72dcf8.e3f957f865^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -6213,7 +6213,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="40">
-        <v>45685.0</v>
+        <v>45688.0</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>62</v>

--- a/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
@@ -314,13 +314,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>08:23:50</t>
-  </si>
-  <si>
-    <t>fd1c0096d3a94406</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.56a088061ae2283cc528f884aa12966f8cbd0b2cbc51b70ffae801261b72dcf8.e3f957f865^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>10:32:30</t>
+  </si>
+  <si>
+    <t>71870872e29d0dc2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.56a088061ae2283cc528f884aa12966f8cbd0b2cbc51b70ffae801261b72dcf8.506fc3293f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -6213,7 +6213,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="40">
-        <v>45688.0</v>
+        <v>45691.0</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>62</v>

--- a/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111#ADVENIASSRLXX/advenias/epersonam/1.0.0/accreditamento-checklist_V8.2.2.xlsx
@@ -314,13 +314,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>10:32:30</t>
-  </si>
-  <si>
-    <t>71870872e29d0dc2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.56a088061ae2283cc528f884aa12966f8cbd0b2cbc51b70ffae801261b72dcf8.506fc3293f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>07:13:58</t>
+  </si>
+  <si>
+    <t>a48f44bb72eeb860</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.56a088061ae2283cc528f884aa12966f8cbd0b2cbc51b70ffae801261b72dcf8.cdd505c670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -6213,7 +6213,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="40">
-        <v>45691.0</v>
+        <v>45692.0</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>62</v>
